--- a/xlsx/喃字_intext.xlsx
+++ b/xlsx/喃字_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="399">
   <si>
     <t>喃字</t>
   </si>
@@ -29,13 +29,13 @@
     <t>Unihan</t>
   </si>
   <si>
-    <t>政策_政策_美國_喃字</t>
+    <t>政策_政策_美国_喃字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E9%9F%93%E7%B5%B1%E4%B8%80%E8%A1%A8%E6%84%8F%E6%96%87%E5%AD%97%E6%93%B4%E5%B1%95%E5%8D%80B</t>
   </si>
   <si>
-    <t>中日韓統一表意文字擴展區B</t>
+    <t>中日韩统一表意文字扩展区B</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%96%87</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E8%AA%9E%E5%AD%97</t>
   </si>
   <si>
-    <t>國語字</t>
+    <t>国语字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E7%B4%A0%E6%96%87%E5%AD%97</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>越南語</t>
+    <t>越南语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E9%AA%A8%E6%96%87</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%86%E6%9B%B8</t>
   </si>
   <si>
-    <t>篆書</t>
+    <t>篆书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B8%E6%9B%B8</t>
   </si>
   <si>
-    <t>隸書</t>
+    <t>隶书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B7%E6%9B%B8</t>
   </si>
   <si>
-    <t>楷書</t>
+    <t>楷书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Unicode</t>
@@ -137,15 +137,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B3%A5%E8%9F%B2%E6%9B%B8</t>
   </si>
   <si>
-    <t>鳥蟲書</t>
+    <t>鸟虫书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%86%E4%B9%A6</t>
   </si>
   <si>
-    <t>篆书</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%AF%86</t>
   </si>
   <si>
@@ -161,15 +158,9 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B6%E4%B9%A6</t>
   </si>
   <si>
-    <t>隶书</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B7%E4%B9%A6</t>
   </si>
   <si>
-    <t>楷书</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B9%A6</t>
   </si>
   <si>
@@ -197,7 +188,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E7%99%BD%E6%9B%B8</t>
   </si>
   <si>
-    <t>飛白書</t>
+    <t>飞白书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%95%E7%89%88%E5%8D%B0%E5%88%B7</t>
@@ -215,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%BF%E5%AE%8B%E9%AB%94</t>
   </si>
   <si>
-    <t>仿宋體</t>
+    <t>仿宋体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E4%BD%93</t>
@@ -275,19 +266,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>合體</t>
+    <t>合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E9%AB%94</t>
   </si>
   <si>
-    <t>獨體</t>
+    <t>独体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E9%83%A8%E4%BB%B6</t>
   </si>
   <si>
-    <t>漢字部件</t>
+    <t>汉字部件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%97%E5%AD%97</t>
@@ -323,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B8%E8%AE%8A</t>
   </si>
   <si>
-    <t>隸變</t>
+    <t>隶变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B6%E5%AE%9A</t>
@@ -347,13 +338,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E5%90%8C%E6%BA%90%E8%A9%9E</t>
   </si>
   <si>
-    <t>漢字同源詞</t>
+    <t>汉字同源词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E6%96%87%E8%AA%AA</t>
   </si>
   <si>
-    <t>右文說</t>
+    <t>右文说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E5%BD%A2%E5%BC%82%E4%B9%89%E8%AF%8D</t>
@@ -401,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AD%97%E6%A8%99%E6%BA%96%E5%AD%97%E9%AB%94</t>
   </si>
   <si>
-    <t>國字標準字體</t>
+    <t>国字标准字体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E7%94%A8%E5%AD%97%E5%AD%97%E5%BD%A2%E8%A1%A8</t>
@@ -425,13 +416,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>新加坡漢字</t>
+    <t>新加坡汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>臺灣漢字</t>
+    <t>台湾汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%B1%89%E5%AD%97</t>
@@ -443,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>朝鮮漢字</t>
+    <t>朝鲜汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AD%97</t>
@@ -455,7 +446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E7%90%83%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>琉球漢字</t>
+    <t>琉球汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E8%A8%80%E5%AD%97</t>
@@ -473,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E8%AA%9E%E5%AD%97</t>
   </si>
   <si>
-    <t>粵語字</t>
+    <t>粤语字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%B7%9D%E6%96%B9%E8%A8%80%E5%AD%97</t>
@@ -485,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC%E8%A9%B1</t>
   </si>
   <si>
-    <t>南京話</t>
+    <t>南京话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E5%AE%B6%E8%AF%9D%E6%AD%A3%E9%9F%B3%E6%AD%A3%E5%AD%97</t>
@@ -497,25 +488,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%AE%A2%E5%AE%B6%E8%AA%9E%E6%9B%B8%E5%AF%AB%E6%8E%A8%E8%96%A6%E7%94%A8%E5%AD%97</t>
   </si>
   <si>
-    <t>台灣客家語書寫推薦用字</t>
+    <t>台湾客家语书写推荐用字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E9%96%A9%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>台閩漢字</t>
+    <t>台闽汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%96%A9%E5%8D%97%E8%AA%9E%E6%8E%A8%E8%96%A6%E7%94%A8%E5%AD%97</t>
   </si>
   <si>
-    <t>臺灣閩南語推薦用字</t>
+    <t>台湾闽南语推荐用字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E9%96%A9%E5%8D%97%E8%AA%9E%E7%94%A8%E8%A9%9E</t>
   </si>
   <si>
-    <t>台灣閩南語用詞</t>
+    <t>台湾闽南语用词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AD%97%E7%AE%80%E5%8C%96</t>
@@ -527,13 +518,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E7%B0%A1%E5%8C%96%E7%88%AD%E8%AB%96</t>
   </si>
   <si>
-    <t>漢字簡化爭論</t>
+    <t>汉字简化争论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E7%B0%A1%E8%BD%89%E6%8F%9B</t>
   </si>
   <si>
-    <t>繁簡轉換</t>
+    <t>繁简转换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E4%BD%93%E4%B8%AD%E6%96%87</t>
@@ -575,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E5%AD%97%E9%AB%94</t>
   </si>
   <si>
-    <t>舊字體</t>
+    <t>旧字体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%96%B0%E5%AD%97%E4%BD%93</t>
@@ -587,19 +578,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%B4%E5%BC%B5%E6%96%B0%E5%AD%97%E9%AB%94</t>
   </si>
   <si>
-    <t>擴張新字體</t>
+    <t>扩张新字体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%B6%E7%94%A8%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>當用漢字</t>
+    <t>当用汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E7%94%A8%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>常用漢字</t>
+    <t>常用汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E9%9F%B3%E6%B1%89%E5%AD%97%E4%B9%A6%E5%86%99%E8%A7%84%E5%88%99</t>
@@ -629,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8D%97%E8%AA%9E%E6%BC%A2%E5%AD%97%E5%80%9F%E9%9F%B3</t>
   </si>
   <si>
-    <t>閩南語漢字借音</t>
+    <t>闽南语汉字借音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E9%9F%B3%E7%AC%A6%E5%8F%B7</t>
@@ -647,13 +638,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E%E5%81%87%E5%90%8D</t>
   </si>
   <si>
-    <t>日語假名</t>
+    <t>日语假名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E8%91%89%E5%81%87%E5%90%8D</t>
   </si>
   <si>
-    <t>萬葉假名</t>
+    <t>万叶假名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%81%87%E5%90%8D</t>
@@ -671,19 +662,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E8%A8%A3_(%E6%9C%9D%E9%AE%AE%E8%AA%9E)</t>
   </si>
   <si>
-    <t>口訣 (朝鮮語)</t>
+    <t>口诀 (朝鲜语)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8F%E8%AE%80</t>
   </si>
   <si>
-    <t>吏讀</t>
+    <t>吏读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9C%AD</t>
   </si>
   <si>
-    <t>鄉札</t>
+    <t>乡札</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD%E5%9B%BD%E5%AD%97</t>
@@ -755,13 +746,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E8%AE%80</t>
   </si>
   <si>
-    <t>音讀</t>
+    <t>音读</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%BC%A2%E5%AD%97%E9%9F%B3</t>
   </si>
   <si>
-    <t>朝鮮漢字音</t>
+    <t>朝鲜汉字音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%B6%8A%E8%AF%8D</t>
@@ -773,7 +764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%BC%A2%E8%B6%8A%E8%AA%9E</t>
   </si>
   <si>
-    <t>古漢越語</t>
+    <t>古汉越语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%83%E9%9F%B3</t>
@@ -785,31 +776,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%B6%8A%E9%9F%B3</t>
   </si>
   <si>
-    <t>漢越音</t>
+    <t>汉越音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%9F%B3_(%E6%97%A5%E6%9C%AC%E6%BC%A2%E5%AD%97%E9%9F%B3)</t>
   </si>
   <si>
-    <t>古音 (日本漢字音)</t>
+    <t>古音 (日本汉字音)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E9%9F%B3</t>
   </si>
   <si>
-    <t>吳音</t>
+    <t>吴音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E9%9F%B3</t>
   </si>
   <si>
-    <t>漢音</t>
+    <t>汉音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BC%A2%E9%9F%B3</t>
   </si>
   <si>
-    <t>新漢音</t>
+    <t>新汉音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E9%9F%B3</t>
@@ -827,13 +818,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%85%A3%E7%94%A8%E9%9F%B3</t>
   </si>
   <si>
-    <t>慣用音</t>
+    <t>惯用音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%BC%A2%E5%AD%97%E9%9F%B3%E7%9A%84%E8%81%B2%E8%AA%BF</t>
   </si>
   <si>
-    <t>日本漢字音的聲調</t>
+    <t>日本汉字音的声调</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%8A%80%E6%9C%AF</t>
@@ -845,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%97%A5%E9%9F%93%E8%B6%8A%E7%B5%B1%E4%B8%80%E8%A1%A8%E6%84%8F%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>中日韓越統一表意文字</t>
+    <t>中日韩越统一表意文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E8%BE%93%E5%85%A5%E6%8A%80%E6%9C%AF</t>
@@ -863,13 +854,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E8%A9%9E</t>
   </si>
   <si>
-    <t>漢字詞</t>
+    <t>汉字词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AF%E5%88%A5%E5%AD%97</t>
   </si>
   <si>
-    <t>錯別字</t>
+    <t>错别字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E7%AC%94%E5%BF%98%E5%AD%97</t>
@@ -881,27 +872,24 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E9%99%A4%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>廢除漢字</t>
+    <t>废除汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97%E5%BE%A9%E6%B4%BB</t>
   </si>
   <si>
-    <t>漢字復活</t>
+    <t>汉字复活</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%97%E8%AC%8E</t>
   </si>
   <si>
-    <t>字謎</t>
+    <t>字谜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AF%AD</t>
   </si>
   <si>
-    <t>越南语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
   </si>
   <si>
@@ -917,13 +905,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E8%81%B2</t>
   </si>
   <si>
-    <t>形聲</t>
+    <t>形声</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E6%84%8F</t>
   </si>
   <si>
-    <t>會意</t>
+    <t>会意</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%87%E5%80%9F</t>
@@ -935,25 +923,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%97%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>文字系統</t>
+    <t>文字系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BA%E6%96%87</t>
   </si>
   <si>
-    <t>諺文</t>
+    <t>谚文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E6%9C%89%E8%A9%9E</t>
   </si>
   <si>
-    <t>固有詞</t>
+    <t>固有词</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>古漢語</t>
+    <t>古汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B2%B1%E4%BE%9D%E8%AF%AD</t>
@@ -989,19 +977,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>越南文學</t>
+    <t>越南文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%97%A3%E5%BE%B7%E8%81%96%E8%A3%BD%E5%AD%97%E5%AD%B8%E8%A7%A3%E7%BE%A9%E6%AD%8C</t>
   </si>
   <si>
-    <t>嗣德聖製字學解義歌</t>
+    <t>嗣德圣制字学解义歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E8%81%B2%E5%AD%97</t>
   </si>
   <si>
-    <t>形聲字</t>
+    <t>形声字</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_writing_in_Vietnam</t>
@@ -1013,73 +1001,70 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%B6%8A%E5%8F%B2%E8%A8%98%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>大越史記全書</t>
+    <t>大越史记全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AE%E8%88%88</t>
   </si>
   <si>
-    <t>馮興</t>
+    <t>冯兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AE%E5%AE%89_(%E8%B6%8A%E5%8D%97)</t>
   </si>
   <si>
-    <t>馮安 (越南)</t>
+    <t>冯安 (越南)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%96%83%E6%96%87</t>
   </si>
   <si>
-    <t>漢喃文</t>
+    <t>汉喃文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%96%87</t>
   </si>
   <si>
-    <t>漢文</t>
+    <t>汉文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%95%99%E5%A3%AB</t>
   </si>
   <si>
-    <t>傳教士</t>
+    <t>传教士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%AD%97</t>
   </si>
   <si>
-    <t>羅馬字</t>
+    <t>罗马字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
+    <t>汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E%E6%8B%BC%E9%9F%B3</t>
   </si>
   <si>
-    <t>漢語拼音</t>
+    <t>汉语拼音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>漢字</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%96%83</t>
   </si>
   <si>
-    <t>漢喃</t>
+    <t>汉喃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E4%B8%80%E5%85%83</t>
@@ -1091,7 +1076,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E6%9C%9D_(%E8%B6%8A%E5%8D%97)</t>
   </si>
   <si>
-    <t>陳朝 (越南)</t>
+    <t>陈朝 (越南)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%AE%E5%85%89%E5%B9%B3</t>
@@ -1127,9 +1112,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%B1%89%E8%AF%AD</t>
   </si>
   <si>
-    <t>古汉语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%AE%E6%9C%9D</t>
   </si>
   <si>
@@ -1139,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%AE%E9%95%B7%E7%A5%9A</t>
   </si>
   <si>
-    <t>阮長祚</t>
+    <t>阮长祚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%97%A3%E5%BE%B7</t>
@@ -1157,19 +1139,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E6%84%8F%E6%96%87%E5%AD%97%E5%B0%8F%E7%B5%84</t>
   </si>
   <si>
-    <t>表意文字小組</t>
+    <t>表意文字小组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E9%AB%94%E5%AD%97</t>
   </si>
   <si>
-    <t>繁體字</t>
+    <t>繁体字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E9%AB%94%E5%AD%97</t>
   </si>
   <si>
-    <t>簡體字</t>
+    <t>简体字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E5%9D%97%E7%99%BD%E6%96%87</t>
@@ -1181,7 +1163,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E6%96%87%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>越文漢字</t>
+    <t>越文汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -1211,19 +1193,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BC%AF%E6%A8%82</t>
   </si>
   <si>
-    <t>馬伯樂</t>
+    <t>马伯乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%9C%AC%E6%BC%A2</t>
   </si>
   <si>
-    <t>高本漢</t>
+    <t>高本汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%9E%E5%AE%A5</t>
   </si>
   <si>
-    <t>聞宥</t>
+    <t>闻宥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%8A%9B</t>
@@ -2180,7 +2162,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2206,10 +2188,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2235,10 +2217,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2264,10 +2246,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2293,10 +2275,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2322,10 +2304,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2351,10 +2333,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2380,10 +2362,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2409,10 +2391,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2438,10 +2420,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2467,10 +2449,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2496,10 +2478,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2525,10 +2507,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2554,10 +2536,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -2583,10 +2565,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2612,10 +2594,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G36" t="n">
         <v>5</v>
@@ -2641,10 +2623,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2670,10 +2652,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2699,10 +2681,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G39" t="n">
         <v>4</v>
@@ -2728,10 +2710,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2757,10 +2739,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G41" t="n">
         <v>5</v>
@@ -2786,10 +2768,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2815,10 +2797,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2844,10 +2826,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2873,10 +2855,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2902,10 +2884,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2931,10 +2913,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2960,10 +2942,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2989,10 +2971,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3018,10 +3000,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3047,10 +3029,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3076,10 +3058,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3105,10 +3087,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3134,10 +3116,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3163,10 +3145,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3192,10 +3174,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3221,10 +3203,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3250,10 +3232,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3279,10 +3261,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3308,10 +3290,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3337,10 +3319,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3366,10 +3348,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3395,10 +3377,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3424,10 +3406,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3453,10 +3435,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3482,10 +3464,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3511,10 +3493,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G67" t="n">
         <v>33</v>
@@ -3540,10 +3522,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3569,10 +3551,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G69" t="n">
         <v>11</v>
@@ -3598,10 +3580,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -3627,10 +3609,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G71" t="n">
         <v>15</v>
@@ -3656,10 +3638,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G72" t="n">
         <v>9</v>
@@ -3685,10 +3667,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G73" t="n">
         <v>70</v>
@@ -3714,10 +3696,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3743,10 +3725,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3772,10 +3754,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3801,10 +3783,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3830,10 +3812,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3859,10 +3841,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3888,10 +3870,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3917,10 +3899,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3946,10 +3928,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3975,10 +3957,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G83" t="n">
         <v>271</v>
@@ -4004,10 +3986,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G84" t="n">
         <v>12</v>
@@ -4033,10 +4015,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4062,10 +4044,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4091,10 +4073,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4120,10 +4102,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4149,10 +4131,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4178,10 +4160,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4207,10 +4189,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4236,10 +4218,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4265,10 +4247,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4294,10 +4276,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4323,10 +4305,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4352,10 +4334,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4381,10 +4363,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4410,10 +4392,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4439,10 +4421,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4468,10 +4450,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4497,10 +4479,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4526,10 +4508,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4555,10 +4537,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4584,10 +4566,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4613,10 +4595,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4642,10 +4624,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4671,10 +4653,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4700,10 +4682,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4729,10 +4711,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4758,10 +4740,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4787,10 +4769,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4816,10 +4798,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4845,10 +4827,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4874,10 +4856,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4903,10 +4885,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4932,10 +4914,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4961,10 +4943,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -4990,10 +4972,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5019,10 +5001,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5048,10 +5030,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5077,10 +5059,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5106,10 +5088,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5135,10 +5117,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5164,10 +5146,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5193,10 +5175,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5222,10 +5204,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5251,10 +5233,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5280,10 +5262,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G128" t="n">
         <v>4</v>
@@ -5309,10 +5291,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5338,10 +5320,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5367,10 +5349,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5396,10 +5378,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5425,10 +5407,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5454,10 +5436,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5483,10 +5465,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5512,10 +5494,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5541,10 +5523,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5570,10 +5552,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5599,10 +5581,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5628,10 +5610,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5657,10 +5639,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5686,10 +5668,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5715,10 +5697,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5744,10 +5726,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5773,10 +5755,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5802,10 +5784,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5831,10 +5813,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5860,10 +5842,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>14</v>
       </c>
       <c r="G148" t="n">
         <v>4</v>
@@ -5889,10 +5871,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>42</v>
@@ -5918,10 +5900,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>33</v>
@@ -5947,10 +5929,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -5976,10 +5958,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6005,10 +5987,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6034,10 +6016,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6063,10 +6045,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6092,10 +6074,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F156" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6121,10 +6103,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6150,10 +6132,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6179,10 +6161,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F159" t="s">
-        <v>294</v>
+        <v>14</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6208,10 +6190,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6237,10 +6219,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6266,10 +6248,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6295,10 +6277,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6324,10 +6306,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -6353,10 +6335,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6382,10 +6364,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6411,10 +6393,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6440,10 +6422,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6469,10 +6451,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>4</v>
@@ -6498,10 +6480,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6527,10 +6509,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6556,10 +6538,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6585,10 +6567,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>4</v>
@@ -6614,10 +6596,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -6643,10 +6625,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6672,10 +6654,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6701,10 +6683,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>6</v>
@@ -6730,10 +6712,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6759,10 +6741,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="G179" t="n">
         <v>38</v>
@@ -6788,10 +6770,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G180" t="n">
         <v>10</v>
@@ -6817,10 +6799,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6846,10 +6828,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6875,10 +6857,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6904,10 +6886,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G184" t="n">
         <v>3</v>
@@ -6933,10 +6915,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -6962,10 +6944,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6991,10 +6973,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F187" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7020,10 +7002,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7049,10 +7031,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F189" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7078,10 +7060,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>308</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7107,10 +7089,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F191" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7136,10 +7118,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F192" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7165,10 +7147,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F193" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7194,10 +7176,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F194" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7223,10 +7205,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F195" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7252,10 +7234,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F196" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7310,10 +7292,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F198" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7339,10 +7321,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F199" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7368,10 +7350,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F200" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7397,10 +7379,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7426,10 +7408,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7455,10 +7437,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F203" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7484,10 +7466,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F204" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7513,10 +7495,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F205" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7542,10 +7524,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F206" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7571,10 +7553,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F207" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7600,10 +7582,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F208" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7629,10 +7611,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F209" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7658,10 +7640,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F210" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7687,10 +7669,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F211" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -7716,10 +7698,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F212" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
